--- a/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Julio.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Julio.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -362,7 +362,7 @@
         </is>
       </c>
       <c r="C11" s="65">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="C12" s="65">
-        <v>354</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
@@ -388,11 +388,11 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Desistimiento Querella.</t>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
         </is>
       </c>
       <c r="C13" s="65">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -403,26 +403,11 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C14" s="65">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="inlineStr" r="A15">
-        <is>
-          <t xml:space="preserve">Juzgado De Garantía De Antofagasta.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B15">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C15" s="65">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
